--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2129131.138420681</v>
+        <v>2127243.556904278</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>575274.9254129144</v>
+        <v>735890.166712028</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>20.57102980333316</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>87.1313832249853</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>59.68657692137155</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>30.99636303581896</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>167.599095731372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>14.01032806733553</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>26.32882004050029</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>270.8306481726715</v>
+        <v>9.725751352521655</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051978</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.139057098654</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.8144229774395</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.4657904025444</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>99.43636052933094</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>134.766073156784</v>
+        <v>264.5864336917079</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5.379327555560621</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.5353475347426</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>113.9813206391598</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>143.3132934174601</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21.69119935396872</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571506</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523587</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>93.40794934711067</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329146</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789599</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.683768698139</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C2" t="n">
-        <v>825.7212517577275</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>467.455553150977</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>81.66730055273274</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>74.72179980352927</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2554.10890334166</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2335.474236313722</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2081.712450951814</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1750.649563608243</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1750.649563608243</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1377.183805347164</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.2324534581135</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4838,13 +4838,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
         <v>1978.468598880909</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036444</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.5573625732399</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>802.0403666355641</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1570.408513028025</v>
+        <v>1540.194529922532</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.9089152986054</v>
+        <v>563.4221461351942</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323706985</v>
+        <v>563.4221461351942</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,43 +5206,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1225.349959272375</v>
+        <v>1289.172269208281</v>
       </c>
       <c r="V13" t="n">
-        <v>1225.349959272375</v>
+        <v>1034.487781002395</v>
       </c>
       <c r="W13" t="n">
-        <v>1225.349959272375</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.349959272375</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="Y13" t="n">
-        <v>1004.557380128845</v>
+        <v>745.070610965434</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5294,28 +5294,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.6108700904384</v>
+        <v>506.0324822735072</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6746871625315</v>
+        <v>506.0324822735072</v>
       </c>
       <c r="D16" t="n">
-        <v>385.6746871625315</v>
+        <v>506.0324822735072</v>
       </c>
       <c r="E16" t="n">
-        <v>237.7615935801384</v>
+        <v>506.0324822735072</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735072</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>337.8571605933278</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>844.028040127399</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904384</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X16" t="n">
-        <v>554.6108700904384</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.6108700904384</v>
+        <v>506.0324822735072</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605672</v>
+        <v>1628.551991811696</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1077.313643905228</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="V19" t="n">
-        <v>909.4268534755672</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="W19" t="n">
-        <v>620.0096834386067</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527472</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.358329063101</v>
+        <v>359.169691290395</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>359.169691290395</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>1362.788923934888</v>
+        <v>807.9518213319425</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.799373036871</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y22" t="n">
-        <v>914.0067938933408</v>
+        <v>359.169691290395</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899877</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>399.657342568068</v>
+        <v>584.7466045204286</v>
       </c>
       <c r="C25" t="n">
-        <v>399.657342568068</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="D25" t="n">
-        <v>249.5407031557322</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="E25" t="n">
-        <v>249.5407031557322</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="F25" t="n">
-        <v>102.6507556578218</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>809.295358296325</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>581.3058073983077</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y25" t="n">
-        <v>581.3058073983077</v>
+        <v>766.3950693506683</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861031</v>
+        <v>699.5778825909703</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>530.6416996630634</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>380.5250602507277</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>380.5250602507277</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>380.5250602507277</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>212.3497385705483</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>930.4499428210811</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>641.0327727841204</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X28" t="n">
-        <v>413.0432218861031</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.0432218861031</v>
+        <v>699.5778825909703</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110231</v>
+        <v>544.1045888917524</v>
       </c>
       <c r="C31" t="n">
-        <v>381.671350464487</v>
+        <v>430.9292712452161</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335221</v>
+        <v>430.9292712452161</v>
       </c>
       <c r="E31" t="n">
-        <v>265.405273955776</v>
+        <v>338.7770429441936</v>
       </c>
       <c r="F31" t="n">
-        <v>265.405273955776</v>
+        <v>247.6479607276539</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569675</v>
+        <v>247.6479607276539</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1240.908892675018</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386977</v>
+        <v>1007.252587919428</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220512</v>
+        <v>835.0239023027809</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598919</v>
+        <v>669.9921884406215</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108339</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506733</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,46 +6862,46 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229681</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506735</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083215</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504522</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,46 +7099,46 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7254,22 +7254,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>711.1141612171745</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222968</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7424,19 +7424,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7549,28 +7549,28 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6581146605672</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6581146605672</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
@@ -7792,16 +7792,16 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>463.6221354090825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8787,10 +8787,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9018,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>275.6995652635676</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11160,7 +11160,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>198.568530941954</v>
+        <v>192.5352881821131</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>15.40670422590584</v>
+        <v>276.5116010460557</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>6.281990924277197</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>21.09940539009662</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,7 +23707,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>2.081770655844868</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>152.701282794497</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>151.756925179807</v>
+        <v>21.93656464488311</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>161.114240907817</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>32.04930581735223</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>34.93250772837627</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>108.8243499063679</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>69.53950666404332</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>103.5264373481604</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.125411499730013e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.999023462385572e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229599</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860263.9314229597</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895008.7021595945</v>
+        <v>895008.7021595944</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
@@ -26323,22 +26323,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590218</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590221</v>
-      </c>
       <c r="J2" t="n">
-        <v>508337.7776590219</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488521</v>
+        <v>528868.7785488506</v>
       </c>
       <c r="L2" t="n">
         <v>533677.1504117846</v>
@@ -26350,10 +26350,10 @@
         <v>533677.1504117843</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117846</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>1.24110151201423e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26427,37 +26427,37 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759167</v>
+        <v>787.7936905758875</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758811</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758489</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.41620477232</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.5809318964</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.9460467889</v>
+        <v>-278208.9460467886</v>
       </c>
       <c r="C6" t="n">
         <v>311758.9331677557</v>
@@ -26528,40 +26528,40 @@
         <v>311758.933167756</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.378457167</v>
+        <v>-109694.8375831395</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.658019729</v>
+        <v>415465.198893757</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197293</v>
+        <v>415465.1988937568</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197293</v>
+        <v>415465.1988937568</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197295</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.4388271364</v>
+        <v>239041.9797011638</v>
       </c>
       <c r="K6" t="n">
-        <v>369125.5485110112</v>
+        <v>369107.0547730754</v>
       </c>
       <c r="L6" t="n">
-        <v>402412.5568589961</v>
+        <v>402412.5568589959</v>
       </c>
       <c r="M6" t="n">
         <v>277954.4484260255</v>
       </c>
       <c r="N6" t="n">
-        <v>412755.4636598626</v>
+        <v>412755.4636598628</v>
       </c>
       <c r="O6" t="n">
-        <v>412755.4636598628</v>
+        <v>412755.4636598625</v>
       </c>
       <c r="P6" t="n">
-        <v>368592.8583570167</v>
+        <v>368592.8583570174</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,31 +26744,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>393.2131402174618</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>87.28432958398621</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5602441772563</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>351.7374786276616</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>58.11055965766516</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>335.2306406500775</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034981</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>353.0329386354462</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>301.6823434638434</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,25 +32075,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>48.48571443651716</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>68.34248921961813</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>213.8677363986961</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540862</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>83.90392744164188</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34144,7 +34144,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946992</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34220,7 +34220,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34232,7 +34232,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>585.3189041590311</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>625.253373291825</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>175.1095124747368</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>319.6085640519032</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>144.3578531802343</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>561.8683986589164</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951448</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>431.9045897018621</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,7 +37868,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>60.72709196759495</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
